--- a/data/logs/log_classificacoes.xlsx
+++ b/data/logs/log_classificacoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,6 +3515,1734 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:02:09</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:10:25</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:21:10</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:33:04</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:44:02</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2025-11-06 15:55:09</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:00:58</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>SEM SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>QUEDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>SOM ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>NÃO LIGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>NÃO DA SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>HFG</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>SEM AUDIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>TJND</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>SEM SINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>NFGH</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>SEM BOBINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2025-11-06 16:04:26</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>SEM LED</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/logs/log_classificacoes.xlsx
+++ b/data/logs/log_classificacoes.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C793"/>
+  <dimension ref="A1:C1423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12334,6 +12334,9452 @@
         <v>45968.52253472222</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>RCA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C794" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>RUIDO NA HÉLICE</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C795" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>RÁDIO NÃO FUNCIONA/SINTONIZA</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C796" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>GRAVAÇÃO FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C797" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>LUZ DE JIG</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C798" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT FALTANDO COR</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C799" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>MAU CONTATO NA LEITURA DO PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C800" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>BATERIA/PILHA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C801" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>APARELHO COM CORPO ESTRANHO</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C802" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>FALHA DE INJEÇÃO/SERIGRAFIA</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C803" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>SOFTWARE TRAVANDO</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C804" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>PONTO BRILHANTE</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C805" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>TENSÕES VARIANDO</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C806" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>LED/FLASH LIGHT COM LUZ FRACA</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C807" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>DISPLAY NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C808" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>TENSÃO BAIXA</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C809" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE LUZ</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C810" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO DO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C811" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>CONTROLE COM POUCA SENSIBILIDADE</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C812" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>ABERTURA/GAP</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C813" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>NÃO GRAVA/ATUALIZA</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C814" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>TERRA ABERTO</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C815" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>COATING/SELADOR</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C816" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>ALETA NÃO ABRE/FECHA</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C817" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>EXCESSO DE DÍGITOS</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C818" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>O-CELL COM PELÍCULA</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C819" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>LINHA VERTICAL</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C820" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>POTÊNCIA MÁXIMA</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C821" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>LED NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C822" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>INTERFERÊNCIA NA IMAGEM</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C823" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO HDMI</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C824" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>LED/DISPLAY PISCANDO</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C825" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>SOFTWARE DESATUALIZADO</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C826" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>VOLUME MÁXIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C827" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>LED COM COR DIFERENTE</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C828" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>PONTO APAGADO</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C829" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>CALÇO/QUADRO APARECENDO</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C830" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LÊ PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C831" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>FALSA FALHA</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C832" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>HI-POT/RIGIDEZ/WI</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C833" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>LED COM LUZ INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C834" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTO DE TESTE</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C835" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>LINHA HORIZONTAL</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C836" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>RUÍDO NO VENTILADOR</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C837" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>VENTILADOR NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C838" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>TECLA DESLOCADA/DANIFICADA</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C839" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>MAL MONTADO</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C840" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>EMPENADO/AMASSADO</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C841" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>TESCON MATERIAL</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C842" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C843" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>LIGA/DESLIGA AUTOMATICAMENTE</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C844" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>FALHA VISUAL/MONTAGEM</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C845" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>TESCON FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C846" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>LÂMPADA FRACA/FORTE</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C847" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>CENTELHANDO/RUÍDO</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C848" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO RF/ANTENA</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C849" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>LED NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C850" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C851" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO DESLIGA</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C852" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>FUNÇÃO INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C853" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>ÁUDIO OSCILANDO</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C854" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C855" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>PLACA EM CURTO</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C856" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>CONTROLE NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C857" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>SEM TENSÃO</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C858" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C859" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DO AF</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C860" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO ALTO-FALANTE</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C861" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>PRATO NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C862" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO CARREGA</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C863" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>SEM IMAGEM/SEM BRILHO</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C864" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>MANCHA ESCURA NA TELA</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C865" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>CONTAMINAÇÃO</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C866" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>TECLA DURA</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C867" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>QUEBRADO/DANIFICADO/BATIDO</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C868" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>NÃO COMUNICA</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C869" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C870" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C871" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>VIBRAÇÃO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C872" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL ESQUERDO/FONE</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C873" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C874" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C875" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>VOLUME MÍNIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C876" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DIREITO/FONE</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C877" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>SEM SINAL DE WI-FI</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C878" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>ESPANADO</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C879" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>TECLAS NÃO ATUAM</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C880" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE GÁS</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C881" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE AR</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C882" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>FALTANDO</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C883" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>FORA DO ESPECIFICADO</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C884" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO GERAL</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C885" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO TWEETER</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C886" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>BLUETOOTH NÃO FUNCIONA</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C887" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>NÃO AQUECE</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C888" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>ÁUDIO BAIXO</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C889" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>COM REBARBA</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C890" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>DESLOCADO</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C891" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>FALTANDO DÍGITO NO DISPLAY</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C892" s="2" t="n">
+        <v>45968.54202546296</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>RCA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C893" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>RUIDO NA HÉLICE</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C894" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>RÁDIO NÃO FUNCIONA/SINTONIZA</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C895" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>GRAVAÇÃO FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C896" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>LUZ DE JIG</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C897" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT FALTANDO COR</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C898" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>MAU CONTATO NA LEITURA DO PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C899" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>BATERIA/PILHA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C900" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>APARELHO COM CORPO ESTRANHO</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C901" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>FALHA DE INJEÇÃO/SERIGRAFIA</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C902" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>SOFTWARE TRAVANDO</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C903" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>PONTO BRILHANTE</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C904" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>TENSÕES VARIANDO</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C905" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>LED/FLASH LIGHT COM LUZ FRACA</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C906" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>DISPLAY NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C907" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>TENSÃO BAIXA</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C908" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE LUZ</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C909" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO DO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C910" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>CONTROLE COM POUCA SENSIBILIDADE</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C911" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>ABERTURA/GAP</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C912" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>NÃO GRAVA/ATUALIZA</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C913" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>TERRA ABERTO</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C914" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>COATING/SELADOR</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C915" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>ALETA NÃO ABRE/FECHA</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C916" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>EXCESSO DE DÍGITOS</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C917" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>O-CELL COM PELÍCULA</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C918" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>LINHA VERTICAL</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C919" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>POTÊNCIA MÁXIMA</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C920" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>LED NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C921" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>INTERFERÊNCIA NA IMAGEM</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C922" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO HDMI</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C923" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>LED/DISPLAY PISCANDO</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C924" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>SOFTWARE DESATUALIZADO</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C925" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>VOLUME MÁXIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C926" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>LED COM COR DIFERENTE</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C927" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>PONTO APAGADO</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C928" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>CALÇO/QUADRO APARECENDO</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C929" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LÊ PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C930" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>FALSA FALHA</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C931" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>HI-POT/RIGIDEZ/WI</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C932" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>LED COM LUZ INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C933" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTO DE TESTE</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C934" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>LINHA HORIZONTAL</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C935" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>RUÍDO NO VENTILADOR</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C936" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>VENTILADOR NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C937" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>TECLA DESLOCADA/DANIFICADA</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C938" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>MAL MONTADO</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C939" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>EMPENADO/AMASSADO</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C940" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>TESCON MATERIAL</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C941" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C942" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>LIGA/DESLIGA AUTOMATICAMENTE</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C943" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>FALHA VISUAL/MONTAGEM</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C944" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>TESCON FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C945" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>LÂMPADA FRACA/FORTE</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C946" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>CENTELHANDO/RUÍDO</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C947" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO RF/ANTENA</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C948" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>LED NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C949" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C950" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO DESLIGA</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C951" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>FUNÇÃO INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C952" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>ÁUDIO OSCILANDO</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C953" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C954" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>PLACA EM CURTO</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C955" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>CONTROLE NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C956" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>SEM TENSÃO</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C957" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C958" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DO AF</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C959" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO ALTO-FALANTE</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C960" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>PRATO NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C961" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO CARREGA</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C962" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>SEM IMAGEM/SEM BRILHO</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C963" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>MANCHA ESCURA NA TELA</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C964" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>CONTAMINAÇÃO</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C965" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>TECLA DURA</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C966" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>QUEBRADO/DANIFICADO/BATIDO</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C967" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>NÃO COMUNICA</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C968" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C969" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C970" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>VIBRAÇÃO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C971" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL ESQUERDO/FONE</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C972" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C973" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C974" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>VOLUME MÍNIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C975" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DIREITO/FONE</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C976" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>SEM SINAL DE WI-FI</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C977" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>ESPANADO</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C978" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>TECLAS NÃO ATUAM</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C979" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE GÁS</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C980" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE AR</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C981" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>FALTANDO</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C982" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>FORA DO ESPECIFICADO</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C983" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO GERAL</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C984" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO TWEETER</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C985" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>BLUETOOTH NÃO FUNCIONA</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C986" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>NÃO AQUECE</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C987" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>ÁUDIO BAIXO</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C988" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>COM REBARBA</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C989" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>DESLOCADO</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C990" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>FALTANDO DÍGITO NO DISPLAY</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C991" s="2" t="n">
+        <v>45968.55015046296</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>RCA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C992" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>RUIDO NA HÉLICE</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C993" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>RÁDIO NÃO FUNCIONA/SINTONIZA</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C994" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>GRAVAÇÃO FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C995" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>LUZ DE JIG</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C996" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT FALTANDO COR</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C997" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>MAU CONTATO NA LEITURA DO PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C998" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>BATERIA/PILHA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C999" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>APARELHO COM CORPO ESTRANHO</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1000" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>FALHA DE INJEÇÃO/SERIGRAFIA</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1001" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>SOFTWARE TRAVANDO</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1002" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>PONTO BRILHANTE</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1003" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>TENSÕES VARIANDO</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1004" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>LED/FLASH LIGHT COM LUZ FRACA</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1005" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>DISPLAY NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1006" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>TENSÃO BAIXA</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1007" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE LUZ</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1008" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO DO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1009" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>CONTROLE COM POUCA SENSIBILIDADE</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1010" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>ABERTURA/GAP</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1011" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>NÃO GRAVA/ATUALIZA</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1012" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>TERRA ABERTO</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1013" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>COATING/SELADOR</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1014" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>ALETA NÃO ABRE/FECHA</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1015" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>EXCESSO DE DÍGITOS</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1016" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>O-CELL COM PELÍCULA</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1017" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>LINHA VERTICAL</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1018" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>POTÊNCIA MÁXIMA</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1019" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>LED NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1020" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>INTERFERÊNCIA NA IMAGEM</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1021" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO HDMI</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1022" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>LED/DISPLAY PISCANDO</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1023" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>SOFTWARE DESATUALIZADO</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1024" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>VOLUME MÁXIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1025" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>LED COM COR DIFERENTE</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1026" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>PONTO APAGADO</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1027" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>CALÇO/QUADRO APARECENDO</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1028" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LÊ PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1029" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>FALSA FALHA</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1030" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>HI-POT/RIGIDEZ/WI</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1031" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>LED COM LUZ INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1032" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTO DE TESTE</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1033" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>LINHA HORIZONTAL</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1034" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>RUÍDO NO VENTILADOR</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1035" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>VENTILADOR NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1036" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>TECLA DESLOCADA/DANIFICADA</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1037" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>MAL MONTADO</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1038" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>EMPENADO/AMASSADO</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1039" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>TESCON MATERIAL</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1040" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1041" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>LIGA/DESLIGA AUTOMATICAMENTE</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1042" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>FALHA VISUAL/MONTAGEM</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1043" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>TESCON FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1044" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>LÂMPADA FRACA/FORTE</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1045" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>CENTELHANDO/RUÍDO</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1046" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO RF/ANTENA</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1047" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>LED NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1048" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1049" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO DESLIGA</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1050" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>FUNÇÃO INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1051" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>ÁUDIO OSCILANDO</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1052" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1053" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>PLACA EM CURTO</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1054" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>CONTROLE NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1055" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>SEM TENSÃO</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1056" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1057" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DO AF</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1058" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO ALTO-FALANTE</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1059" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>PRATO NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1060" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO CARREGA</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1061" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>SEM IMAGEM/SEM BRILHO</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1062" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>MANCHA ESCURA NA TELA</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1063" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>CONTAMINAÇÃO</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1064" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>TECLA DURA</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1065" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>QUEBRADO/DANIFICADO/BATIDO</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1066" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>NÃO COMUNICA</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1067" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1068" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1069" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>VIBRAÇÃO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1070" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL ESQUERDO/FONE</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1071" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1072" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1073" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>VOLUME MÍNIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1074" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DIREITO/FONE</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1075" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>SEM SINAL DE WI-FI</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1076" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>ESPANADO</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1077" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>TECLAS NÃO ATUAM</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1078" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE GÁS</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1079" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE AR</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1080" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>FALTANDO</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1081" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>FORA DO ESPECIFICADO</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1082" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO GERAL</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1083" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO TWEETER</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1084" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>BLUETOOTH NÃO FUNCIONA</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1085" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>NÃO AQUECE</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1086" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>ÁUDIO BAIXO</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1087" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>COM REBARBA</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1088" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>DESLOCADO</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1089" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>FALTANDO DÍGITO NO DISPLAY</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1090" s="2" t="n">
+        <v>45968.57753472222</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>RCA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1091" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>RUIDO NA HÉLICE</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1092" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>RÁDIO NÃO FUNCIONA/SINTONIZA</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1093" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>GRAVAÇÃO FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1094" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>LUZ DE JIG</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1095" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT FALTANDO COR</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1096" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>MAU CONTATO NA LEITURA DO PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1097" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>BATERIA/PILHA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1098" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>APARELHO COM CORPO ESTRANHO</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1099" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>FALHA DE INJEÇÃO/SERIGRAFIA</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1100" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>SOFTWARE TRAVANDO</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1101" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>PONTO BRILHANTE</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1102" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>TENSÕES VARIANDO</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1103" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>LED/FLASH LIGHT COM LUZ FRACA</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1104" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>DISPLAY NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1105" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>TENSÃO BAIXA</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1106" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE LUZ</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1107" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO DO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1108" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>CONTROLE COM POUCA SENSIBILIDADE</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1109" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>ABERTURA/GAP</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1110" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>NÃO GRAVA/ATUALIZA</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1111" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>TERRA ABERTO</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1112" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>COATING/SELADOR</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1113" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>ALETA NÃO ABRE/FECHA</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1114" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>EXCESSO DE DÍGITOS</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1115" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>O-CELL COM PELÍCULA</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1116" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>LINHA VERTICAL</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1117" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>POTÊNCIA MÁXIMA</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1118" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>LED NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1119" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>INTERFERÊNCIA NA IMAGEM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1120" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO HDMI</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1121" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>LED/DISPLAY PISCANDO</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1122" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>SOFTWARE DESATUALIZADO</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1123" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>VOLUME MÁXIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1124" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>LED COM COR DIFERENTE</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1125" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>PONTO APAGADO</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1126" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>CALÇO/QUADRO APARECENDO</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1127" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LÊ PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1128" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>FALSA FALHA</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1129" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>HI-POT/RIGIDEZ/WI</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1130" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>LED COM LUZ INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1131" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTO DE TESTE</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1132" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>LINHA HORIZONTAL</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1133" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>RUÍDO NO VENTILADOR</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1134" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>VENTILADOR NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1135" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>TECLA DESLOCADA/DANIFICADA</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1136" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>MAL MONTADO</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1137" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>EMPENADO/AMASSADO</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1138" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>TESCON MATERIAL</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1139" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1140" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>LIGA/DESLIGA AUTOMATICAMENTE</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1141" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>FALHA VISUAL/MONTAGEM</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1142" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>TESCON FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1143" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>LÂMPADA FRACA/FORTE</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1144" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>CENTELHANDO/RUÍDO</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1145" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO RF/ANTENA</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1146" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>LED NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1147" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1148" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO DESLIGA</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1149" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>FUNÇÃO INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1150" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>ÁUDIO OSCILANDO</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1151" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1152" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>PLACA EM CURTO</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1153" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>CONTROLE NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1154" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>SEM TENSÃO</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1155" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1156" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DO AF</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1157" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO ALTO-FALANTE</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1158" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>PRATO NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1159" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO CARREGA</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1160" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>SEM IMAGEM/SEM BRILHO</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1161" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>MANCHA ESCURA NA TELA</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1162" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>CONTAMINAÇÃO</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1163" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>TECLA DURA</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1164" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>QUEBRADO/DANIFICADO/BATIDO</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1165" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>NÃO COMUNICA</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1166" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1167" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1168" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>VIBRAÇÃO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1169" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL ESQUERDO/FONE</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1170" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1171" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1172" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>VOLUME MÍNIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1173" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DIREITO/FONE</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1174" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>SEM SINAL DE WI-FI</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1175" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>ESPANADO</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1176" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>TECLAS NÃO ATUAM</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1177" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE GÁS</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1178" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE AR</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1179" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>FALTANDO</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1180" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>FORA DO ESPECIFICADO</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1181" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO GERAL</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1182" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO TWEETER</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1183" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>BLUETOOTH NÃO FUNCIONA</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1184" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>NÃO AQUECE</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1185" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>ÁUDIO BAIXO</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1186" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>COM REBARBA</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1187" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>DESLOCADO</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1188" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>FALTANDO DÍGITO NO DISPLAY</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1189" s="2" t="n">
+        <v>45968.60337962963</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>RCA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1190" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>RÁDIO NÃO FUNCIONA/SINTONIZA</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1191" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>GRAVAÇÃO FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1192" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>LUZ DE JIG</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1193" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT FALTANDO COR</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1194" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>MAU CONTATO NA LEITURA DO PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1195" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>BATERIA/PILHA NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1196" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>APARELHO COM CORPO ESTRANHO</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1197" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>FALHA DE INJEÇÃO/SERIGRAFIA</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1198" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>SOFTWARE TRAVANDO</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1199" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>PONTO BRILHANTE</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1200" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>TENSÕES VARIANDO</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1201" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>LED/FLASH LIGHT COM LUZ FRACA</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1202" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>DISPLAY NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1203" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>TENSÃO BAIXA</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1204" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE LUZ</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1205" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO DO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1206" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>CONTROLE COM POUCA SENSIBILIDADE</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1207" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>ABERTURA/GAP</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1208" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>NÃO GRAVA/ATUALIZA</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1209" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>TERRA ABERTO</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1210" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>COATING/SELADOR</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1211" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>EXCESSO DE DÍGITOS</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1212" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>O-CELL COM PELÍCULA</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1213" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>LINHA VERTICAL</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1214" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>POTÊNCIA MÁXIMA</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1215" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>LED NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1216" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>INTERFERÊNCIA NA IMAGEM</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1217" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO HDMI</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1218" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>LED/DISPLAY PISCANDO</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1219" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>SOFTWARE DESATUALIZADO</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1220" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>VOLUME MÁXIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1221" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>LED COM COR DIFERENTE</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1222" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>PONTO APAGADO</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1223" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>CALÇO/QUADRO APARECENDO</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1224" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LÊ PEN DRIVE</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1225" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>FALSA FALHA</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1226" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>HI-POT/RIGIDEZ/WI</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1227" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>LED COM LUZ INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1228" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>EQUIPAMENTO DE TESTE</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1229" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>LINHA HORIZONTAL</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1230" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>RUÍDO NO VENTILADOR</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1231" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>VENTILADOR NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1232" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>TECLA DESLOCADA/DANIFICADA</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1233" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>MAL MONTADO</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1234" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>EMPENADO/AMASSADO</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1235" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>TESCON MATERIAL</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1236" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO MIC/FONE/AUX</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1237" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>LIGA/DESLIGA AUTOMATICAMENTE</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1238" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>FALHA VISUAL/MONTAGEM</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1239" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>TESCON FALHA DE PROCESSO</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1240" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>LÂMPADA FRACA/FORTE</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1241" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>CENTELHANDO/RUÍDO</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1242" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>SEM VÍDEO NO RF/ANTENA</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1243" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>LED NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1244" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>FLASH LIGHT NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1245" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO DESLIGA</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1246" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>FUNÇÃO INVERTIDA</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1247" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>ÁUDIO OSCILANDO</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1248" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO ACENDE</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1249" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>PLACA EM CURTO</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1250" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>CONTROLE NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1251" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>SEM TENSÃO</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1252" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>RISCADO</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1253" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DO AF</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1254" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO ALTO-FALANTE</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1255" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>PRATO NÃO GIRA</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1256" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO CARREGA</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1257" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>SEM IMAGEM/SEM BRILHO</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1258" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>MANCHA ESCURA NA TELA</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1259" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>CONTAMINAÇÃO</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1260" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>TECLA DURA</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1261" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>QUEBRADO/DANIFICADO/BATIDO</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1262" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>NÃO COMUNICA</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1263" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>LÂMPADA NÃO APAGA</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1264" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>APARELHO NÃO LIGA</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1265" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>VIBRAÇÃO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1266" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL ESQUERDO/FONE</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1267" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>MANCHA</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1268" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>RUÍDO NO ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1269" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>VOLUME MÍNIMO NÃO ATUA</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1270" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO CANAL DIREITO/FONE</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1271" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>SEM SINAL DE WI-FI</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1272" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>ESPANADO</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1273" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>TECLAS NÃO ATUAM</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1274" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE GÁS</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1275" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>VAZAMENTO DE AR</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1276" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>FALTANDO</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1277" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>FORA DO ESPECIFICADO</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1278" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO GERAL</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1279" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>SEM ÁUDIO NO TWEETER</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1280" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>BLUETOOTH NÃO FUNCIONA</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1281" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>NÃO AQUECE</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1282" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>ÁUDIO BAIXO</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1283" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>COM REBARBA</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1284" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>DESLOCADO</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1285" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>FALTANDO DÍGITO NO DISPLAY</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1286" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>White Spot</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1287" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>Optical não Atual</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1288" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>Vídeo com Cor fora de Padrão</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1289" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>Gravação Material</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1290" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>Loader com ruidos</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1291" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>Osciloscópio com Tensão Variada</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1292" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>Entrada de Rede não Atua</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1293" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>Tampa do LOADER Aberto</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1294" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr"/>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1295" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>Sem vídeo no AV</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1296" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>Tecla capacitiva (touch) não atua</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1297" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>Vibração no Áudio SWEEP</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1298" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>Led/Flash Light com luz forte</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1299" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>Repertições de ECO</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1300" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>Super Aquecimento</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1301" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>Polarite Invertido</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1302" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>RUIDO NA HÉLICE</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1303" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>ALETA NÃO ABRE/FECHA</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1304" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>Potencia Maxima</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1305" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>Led com luz invertida</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1306" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>Lâmpada não apaga</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1307" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>Vazamento de Gás</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1308" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>Lâmpada Piscando</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1309" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>Chave Não Atua</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1310" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>Volume diminui automaticamente</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1311" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>Vazamento de AR</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1312" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>Falha de Injeção /Serigrafia</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1313" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>Led do Equalizador não atua</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1314" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>Controle com pouca sensibilidade</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1315" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>Gravação Falha de Processo</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1316" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>RCA Fora do especificado</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1317" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>Tensões variando</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1318" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>Placa em Curto</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1319" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>Luz de Jig</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1320" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>Tensão alta</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1321" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>Sem áudio no canal do AF</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1322" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>Software Travando</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1323" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>Tensão baixa</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1324" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>Coating/Selador</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1325" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>Tecla dura</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1326" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>Sem tensão</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1327" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>Falha Visual/Montagem</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1328" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>Falsa falha</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1329" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>Tescon Material</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1330" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>Tescon Falha de Processo</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1331" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>Equipamento de Teste</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1332" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>Não Comunica</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1333" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>Linha Horizontal</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1334" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>Agudo/Grave não atua</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1335" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>White Ballance</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1336" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>Buzzer não Atua</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1337" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>Sem video no RF/ANTENA</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1338" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>Empenado/Amassado</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1339" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>CD Sai girando</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1340" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Terra Aberto</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1341" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>Aparelho não desliga</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1342" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Vazamento na Porta</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1343" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>Audio Oscilando</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1344" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Função REC não Grava</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1345" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Ruido no Bluetooth</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1346" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>Ponto Apagado</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1347" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Aparelho com corpo estranho</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1348" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>Mal contato na leitura do pen drive</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1349" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>Led com cor diferente</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1350" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Película no O-CELL</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1351" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>Lâmpada Fraca/Forte</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1352" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>Prato Travado</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1353" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>Led não apaga</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1354" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>Bluetooth Não Funciona</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1355" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>Faltando</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1356" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>Pop noise</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1357" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Volume maximo não atua</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1358" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>Bateria/Pilha não atua</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1359" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Ruido no áudio do  MIC/Fone/Aux</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1360" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Sem video no HDMI</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1361" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>Espanado</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1362" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>Flash Light  não liga</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1363" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>Bateria Aux. Não Atua</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1364" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>RCA  Não atua</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1365" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>Radio Não Funciona/Sintoniza</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1366" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>Controle não atua</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1367" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>Sem sinal de wi-fi</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1368" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>Sem áudio no canal ESQUERDO/Fone</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1369" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Saída Dupla de Áudio</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1370" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>HI-POT/Rigidez/WI</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1371" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>Software desatualizado</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1372" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Flash Light Faltando Cor</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1373" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>Mal montado</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>ARCON</t>
+        </is>
+      </c>
+      <c r="C1374" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Fora do especificado</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1375" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Com rebarba</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1376" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>Deslocado</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1377" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Ruído no Ventilador</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1378" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>Lâmpada não Acende</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1379" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Não lê dvd/CD/Jogos</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1380" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Não Grava/Atualiza</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1381" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>Aparelho não carrega</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1382" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Sem áudio no canal DIREITO/Fone</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1383" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>Abertura/Gap</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1384" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>Display não acende</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1385" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>Quebrado/Danificado/Batido</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1386" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>Led/Display piscando</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1387" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>Teclas não atua</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1388" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>Prato não Gira</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1389" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>Ponto Brilhante</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1390" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>Excesso de Digitos</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1391" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>Faltando digito no display</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1392" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>Led não acende</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1393" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>Led/Flash Light com luz fraca</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1394" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>Volume minimo não atua</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1395" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>Mal Contato no MIC/Fone/Aux</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1396" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>Sem áudio no  MIC/Fone/Aux</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1397" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>Função Invertida</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1398" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>Audio Baixo</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1399" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>Entrada da Gui/Aux Não Funciona</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1400" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Liga/desliga automaticamente</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1401" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>Interferência na Imagem</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1402" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>Aparelho não lê pen drive</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1403" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>Ventilador não Gira</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1404" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>Não Aquece</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1405" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>Vazamento na Cavidade</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1406" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>Ruido no áudio</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1407" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Sem audio no alto falante</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1408" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>Riscado</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1409" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>Aparelho não liga</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1410" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>Sem áudio geral</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1411" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>Tecla deslocada/danificada</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1412" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Sem imagem/sem brilho</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1413" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Calço/Quadro aparecendo</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1414" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>Vibração no Áudio</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="C1415" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Sem audio no Tweteer</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C1416" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>Linha Vertical</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1417" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Centelhando/Ruido</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>MWO</t>
+        </is>
+      </c>
+      <c r="C1418" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>Mancha</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1419" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>O-cell com Película</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1420" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Mancha Escura na Tela</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1421" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>Vazamento de Luz</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="C1422" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>Contaminação</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="C1423" s="2" t="n">
+        <v>45968.67116898148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
